--- a/data/logs.xlsx
+++ b/data/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikklepl/Google Drive/4th Semester/Social and Cultural Dynamics in Cognition/Codenames/Codenames_Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C081741-3C68-EA48-9436-066C5D9AE939}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB5304-8A59-5C4D-B5BC-374B6179C912}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
   <si>
     <t>participant.id_in_session</t>
   </si>
@@ -160,18 +160,12 @@
     <t>3k271zax</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>10.192.31.31</t>
   </si>
   <si>
     <t>2018-05-17 08:08:55.476250+00:00</t>
   </si>
   <si>
-    <t>Instructions</t>
-  </si>
-  <si>
     <t>10.192.51.29</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>cikvd8i6</t>
   </si>
   <si>
-    <t>WaitForHQ</t>
-  </si>
-  <si>
     <t>2018-05-17 09:07:52.845319+00:00</t>
   </si>
   <si>
@@ -230,6 +221,105 @@
   </si>
   <si>
     <t>Finnish</t>
+  </si>
+  <si>
+    <t>b74kvwvw</t>
+  </si>
+  <si>
+    <t>192.168.1.37</t>
+  </si>
+  <si>
+    <t>2018-05-20 12:20:56.598583+00:00</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>Hidden Foal</t>
+  </si>
+  <si>
+    <t>ozbcqm8z</t>
+  </si>
+  <si>
+    <t>l8ao3la7</t>
+  </si>
+  <si>
+    <t>2018-05-20 12:21:00.639494+00:00</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>lqwlb3rw</t>
+  </si>
+  <si>
+    <t>2018-05-20 12:59:20.303742+00:00</t>
+  </si>
+  <si>
+    <t>czech</t>
+  </si>
+  <si>
+    <t>Jade Piccolo</t>
+  </si>
+  <si>
+    <t>umv9x6g6</t>
+  </si>
+  <si>
+    <t>352oxcny</t>
+  </si>
+  <si>
+    <t>2018-05-20 12:59:23.183488+00:00</t>
+  </si>
+  <si>
+    <t>hw5nww8u</t>
+  </si>
+  <si>
+    <t>31.13.125.21</t>
+  </si>
+  <si>
+    <t>2018-05-18 13:48:48.314868+00:00</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Rowdy Mill</t>
+  </si>
+  <si>
+    <t>qmwo7i7q</t>
+  </si>
+  <si>
+    <t>qppykrmn</t>
+  </si>
+  <si>
+    <t>31.13.124.86</t>
+  </si>
+  <si>
+    <t>2018-05-18 13:49:07.562293+00:00</t>
+  </si>
+  <si>
+    <t>jbeosu69</t>
+  </si>
+  <si>
+    <t>2018-05-20 15:09:51.936483+00:00</t>
+  </si>
+  <si>
+    <t>Searching Violin</t>
+  </si>
+  <si>
+    <t>4y98gv9x</t>
+  </si>
+  <si>
+    <t>b9c2qpzl</t>
+  </si>
+  <si>
+    <t>2018-05-20 15:09:55.978999+00:00</t>
+  </si>
+  <si>
+    <t>Chinese</t>
   </si>
 </sst>
 </file>
@@ -605,14 +695,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" customWidth="1"/>
     <col min="26" max="26" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -826,16 +918,16 @@
         <v>36</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -894,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -912,13 +1004,13 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -942,7 +1034,7 @@
         <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V4">
         <v>7</v>
@@ -957,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA4">
         <v>7</v>
@@ -966,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -977,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -995,13 +1087,13 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1025,7 +1117,7 @@
         <v>41</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V5">
         <v>7</v>
@@ -1040,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA5">
         <v>7</v>
@@ -1049,18 +1141,18 @@
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1075,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1099,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S6">
         <v>23</v>
@@ -1123,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="Z6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -1132,18 +1224,18 @@
         <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AI6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1158,16 +1250,16 @@
         <v>36</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1182,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S7">
         <v>20</v>
@@ -1191,34 +1283,698 @@
         <v>41</v>
       </c>
       <c r="U7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>82</v>
+      </c>
+      <c r="F8">
+        <v>565</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>565</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9">
+        <v>22</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>565</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10">
+        <v>19</v>
+      </c>
+      <c r="T10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>565</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11">
+        <v>26</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>104</v>
+      </c>
+      <c r="F12">
+        <v>565</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>106</v>
+      </c>
+      <c r="F13">
+        <v>565</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>19</v>
+      </c>
+      <c r="T13" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>89</v>
+      </c>
+      <c r="F14">
+        <v>565</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14">
+        <v>21</v>
+      </c>
+      <c r="T14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>89</v>
+      </c>
+      <c r="F15">
+        <v>565</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15">
+        <v>23</v>
+      </c>
+      <c r="T15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" t="s">
+        <v>99</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/logs.xlsx
+++ b/data/logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikklepl/Google Drive/4th Semester/Social and Cultural Dynamics in Cognition/Codenames/Codenames_Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikklepl/Google Drive/4th Semester/Social and Cultural Dynamics in Cognition/Codenames/Cooperation-between-friends/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB5304-8A59-5C4D-B5BC-374B6179C912}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48FC47-13D0-F548-9FDA-724CB3A78C2F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
   <si>
     <t>participant.id_in_session</t>
   </si>
@@ -320,6 +320,45 @@
   </si>
   <si>
     <t>Chinese</t>
+  </si>
+  <si>
+    <t>0w9bzg1w</t>
+  </si>
+  <si>
+    <t>2018-05-21 09:50:02.125013+00:00</t>
+  </si>
+  <si>
+    <t>Violet Guitar</t>
+  </si>
+  <si>
+    <t>3o1ylzgc</t>
+  </si>
+  <si>
+    <t>1bal6azg</t>
+  </si>
+  <si>
+    <t>2018-05-21 09:50:04.895057+00:00</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>06yc9abg</t>
+  </si>
+  <si>
+    <t>2018-05-21 10:19:22.893888+00:00</t>
+  </si>
+  <si>
+    <t>Covert Mixer</t>
+  </si>
+  <si>
+    <t>qxy8xv0y</t>
+  </si>
+  <si>
+    <t>zfl5nzxu</t>
+  </si>
+  <si>
+    <t>2018-05-21 10:19:25.804722+00:00</t>
   </si>
 </sst>
 </file>
@@ -695,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:AI15"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1977,6 +2016,338 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>285</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16">
+        <v>20</v>
+      </c>
+      <c r="T16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s">
+        <v>79</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>285</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17">
+        <v>24</v>
+      </c>
+      <c r="T17" t="s">
+        <v>70</v>
+      </c>
+      <c r="U17" t="s">
+        <v>106</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>89</v>
+      </c>
+      <c r="F18">
+        <v>285</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+      <c r="R18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+      <c r="T18" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>89</v>
+      </c>
+      <c r="F19">
+        <v>285</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19">
+        <v>22</v>
+      </c>
+      <c r="T19" t="s">
+        <v>70</v>
+      </c>
+      <c r="U19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/logs.xlsx
+++ b/data/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikklepl/Google Drive/4th Semester/Social and Cultural Dynamics in Cognition/Codenames/Cooperation-between-friends/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48FC47-13D0-F548-9FDA-724CB3A78C2F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABBCD2D-71A7-3F41-B570-361D8AC25487}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
   <si>
     <t>participant.id_in_session</t>
   </si>
@@ -359,6 +359,30 @@
   </si>
   <si>
     <t>2018-05-21 10:19:25.804722+00:00</t>
+  </si>
+  <si>
+    <t>2gta2du0</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>192.168.1.33</t>
+  </si>
+  <si>
+    <t>2018-05-22 14:15:27.986214+00:00</t>
+  </si>
+  <si>
+    <t>Jade Wildcat</t>
+  </si>
+  <si>
+    <t>h7523i2i</t>
+  </si>
+  <si>
+    <t>2n98p4le</t>
+  </si>
+  <si>
+    <t>2018-05-22 14:15:45.024866+00:00</t>
   </si>
 </sst>
 </file>
@@ -734,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:AI19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2348,6 +2372,172 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>104</v>
+      </c>
+      <c r="F20">
+        <v>285</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20">
+        <v>21</v>
+      </c>
+      <c r="T20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>104</v>
+      </c>
+      <c r="F21">
+        <v>285</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21">
+        <v>21</v>
+      </c>
+      <c r="T21" t="s">
+        <v>70</v>
+      </c>
+      <c r="U21" t="s">
+        <v>79</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/logs.xlsx
+++ b/data/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikklepl/Google Drive/4th Semester/Social and Cultural Dynamics in Cognition/Codenames/Cooperation-between-friends/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABBCD2D-71A7-3F41-B570-361D8AC25487}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B64877-38C2-4848-82A1-0B7043021E7E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="119">
   <si>
     <t>participant.id_in_session</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>10.192.85.151</t>
-  </si>
-  <si>
     <t>2018-05-17 08:08:29.657913+00:00</t>
   </si>
   <si>
@@ -160,15 +157,9 @@
     <t>3k271zax</t>
   </si>
   <si>
-    <t>10.192.31.31</t>
-  </si>
-  <si>
     <t>2018-05-17 08:08:55.476250+00:00</t>
   </si>
   <si>
-    <t>10.192.51.29</t>
-  </si>
-  <si>
     <t>5k34w083</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>seo2yh1a</t>
   </si>
   <si>
-    <t>31.13.126.90</t>
-  </si>
-  <si>
     <t>2018-05-17 17:07:07.849501+00:00</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
     <t>mmyh9cox</t>
   </si>
   <si>
-    <t>84.238.42.180</t>
-  </si>
-  <si>
     <t>2018-05-17 17:07:38.901248+00:00</t>
   </si>
   <si>
@@ -226,9 +211,6 @@
     <t>b74kvwvw</t>
   </si>
   <si>
-    <t>192.168.1.37</t>
-  </si>
-  <si>
     <t>2018-05-20 12:20:56.598583+00:00</t>
   </si>
   <si>
@@ -277,9 +259,6 @@
     <t>hw5nww8u</t>
   </si>
   <si>
-    <t>31.13.125.21</t>
-  </si>
-  <si>
     <t>2018-05-18 13:48:48.314868+00:00</t>
   </si>
   <si>
@@ -295,9 +274,6 @@
     <t>qppykrmn</t>
   </si>
   <si>
-    <t>31.13.124.86</t>
-  </si>
-  <si>
     <t>2018-05-18 13:49:07.562293+00:00</t>
   </si>
   <si>
@@ -367,9 +343,6 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t>192.168.1.33</t>
-  </si>
-  <si>
     <t>2018-05-22 14:15:27.986214+00:00</t>
   </si>
   <si>
@@ -383,6 +356,27 @@
   </si>
   <si>
     <t>2018-05-22 14:15:45.024866+00:00</t>
+  </si>
+  <si>
+    <t>aygxdtt8</t>
+  </si>
+  <si>
+    <t>2018-05-25 11:31:06.811736+00:00</t>
+  </si>
+  <si>
+    <t>Orange Warning</t>
+  </si>
+  <si>
+    <t>t0ofndmz</t>
+  </si>
+  <si>
+    <t>byo8oiom</t>
+  </si>
+  <si>
+    <t>2018-05-25 11:31:06.809881+00:00</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -758,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -904,58 +898,58 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>39</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
       </c>
       <c r="S2">
         <v>23</v>
       </c>
       <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
         <v>43</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>44</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -966,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -987,10 +981,10 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1005,40 +999,40 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S3">
         <v>24</v>
       </c>
       <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
         <v>41</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
         <v>42</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
         <v>43</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>44</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1049,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1070,10 +1064,10 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1088,16 +1082,16 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S4">
         <v>21</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V4">
         <v>7</v>
@@ -1112,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA4">
         <v>7</v>
@@ -1121,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1132,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1153,10 +1147,10 @@
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1171,16 +1165,16 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S5">
         <v>20</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V5">
         <v>7</v>
@@ -1195,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA5">
         <v>7</v>
@@ -1204,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1215,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1236,10 +1230,10 @@
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1254,17 +1248,17 @@
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S6">
         <v>23</v>
       </c>
       <c r="T6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s">
         <v>41</v>
       </c>
-      <c r="U6" t="s">
-        <v>42</v>
-      </c>
       <c r="V6">
         <v>1</v>
       </c>
@@ -1278,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="Z6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -1287,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -1298,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1319,10 +1313,10 @@
         <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1337,16 +1331,16 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S7">
         <v>20</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1361,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="Z7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1370,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -1381,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1402,10 +1396,10 @@
         <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1420,16 +1414,16 @@
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S8">
         <v>20</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1444,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="Z8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1453,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="AC8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1464,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1485,10 +1479,10 @@
         <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1503,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S9">
         <v>22</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -1527,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="Z9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1536,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1547,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1568,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1586,16 +1580,16 @@
         <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S10">
         <v>19</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -1610,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -1619,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1630,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1651,10 +1645,10 @@
         <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1669,16 +1663,16 @@
         <v>5</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S11">
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -1693,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -1702,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1713,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1734,10 +1728,10 @@
         <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1752,16 +1746,16 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12">
         <v>22</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="V12">
         <v>2</v>
@@ -1776,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="Z12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -1785,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI12">
         <v>1</v>
@@ -1796,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1817,10 +1811,10 @@
         <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1835,16 +1829,16 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13">
         <v>19</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="V13">
         <v>2</v>
@@ -1859,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -1868,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI13">
         <v>1</v>
@@ -1879,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1900,10 +1894,10 @@
         <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1918,16 +1912,16 @@
         <v>7</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S14">
         <v>21</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -1942,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="Z14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AA14">
         <v>1</v>
@@ -1951,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -1962,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1983,10 +1977,10 @@
         <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2001,16 +1995,16 @@
         <v>7</v>
       </c>
       <c r="R15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S15">
         <v>23</v>
       </c>
       <c r="T15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -2025,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="Z15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -2034,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2045,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2066,10 +2060,10 @@
         <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2084,16 +2078,16 @@
         <v>8</v>
       </c>
       <c r="R16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S16">
         <v>20</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -2108,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="Z16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2117,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2128,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2149,10 +2143,10 @@
         <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2167,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="R17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S17">
         <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -2191,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="Z17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -2200,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -2211,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2232,10 +2226,10 @@
         <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2250,16 +2244,16 @@
         <v>9</v>
       </c>
       <c r="R18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S18">
         <v>21</v>
       </c>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2274,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AA18">
         <v>1</v>
@@ -2283,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -2294,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2315,10 +2309,10 @@
         <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -2333,16 +2327,16 @@
         <v>9</v>
       </c>
       <c r="R19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S19">
         <v>22</v>
       </c>
       <c r="T19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2357,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="Z19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AA19">
         <v>1</v>
@@ -2366,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2377,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2395,13 +2389,13 @@
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2416,16 +2410,16 @@
         <v>10</v>
       </c>
       <c r="R20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S20">
         <v>21</v>
       </c>
       <c r="T20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -2440,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="Z20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AA20">
         <v>1</v>
@@ -2449,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2460,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2478,13 +2472,13 @@
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2499,16 +2493,16 @@
         <v>10</v>
       </c>
       <c r="R21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S21">
         <v>21</v>
       </c>
       <c r="T21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -2523,18 +2517,184 @@
         <v>1</v>
       </c>
       <c r="Z21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>285</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>12</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22">
+        <v>14</v>
+      </c>
+      <c r="T22" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" t="s">
+        <v>73</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>285</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" t="s">
         <v>117</v>
       </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI21">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23">
+        <v>14</v>
+      </c>
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+      <c r="U23" t="s">
+        <v>73</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI23">
         <v>0</v>
       </c>
     </row>
